--- a/BLOG/Images/Food Logs/150_Days/Cronometer-biometrics-2018-06-11_OUT.xlsx
+++ b/BLOG/Images/Food Logs/150_Days/Cronometer-biometrics-2018-06-11_OUT.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Cronometer-biometrics-2018-06-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -875,9 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1919,9 +1917,9 @@
         <f t="shared" si="3"/>
         <v>0.87477433119973735</v>
       </c>
-      <c r="J28" t="e">
-        <f>#REF!-F28</f>
-        <v>#REF!</v>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>-1.76400000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
